--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ454.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ454.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173D6EF1-3FB6-4BC3-A431-11D4F5D6A22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19404" windowHeight="6816" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -268,10 +269,6 @@
     <t>CustId= , AND ApplyDate=</t>
   </si>
   <si>
-    <t>A:新增;C:異動;D:刪除</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>NVARCHAR2</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -314,7 +311,74 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>CdCOde.PayOffResult
+    <t>DecimalD</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukey</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水號</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherEq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate DESC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ukeyFirst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukey=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherFirst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三位文數字
+法院名稱代號表(CdCode.CourtCode)或郵遞區號</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CourtCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubmitKey,CustId,ApplyDate,CourtCode,MaxMainCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubmitKey= , AND CustId= , AND ApplyDate= , AND CourtCode= , AND MaxMainCode=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>custIdEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcDateEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custRcEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+D:刪除</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.PayOffResult
 A:於調解前已聲請強制執行並獲分配之款項，於日後領取分配款者
 B:債務人於最高限額抵押權內清償無擔保債務
 C:保證人代為清償債務
@@ -322,72 +386,11 @@
 E:車貸及次順位不動產抵押權經債權金融機構處分後收回款項並沖抵貸款金融機構債務</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
-  <si>
-    <t>DecimalD</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ukey</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>otherEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate DESC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ukeyFirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ukey=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>otherFirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三位文數字
-法院名稱代號表(CdCode.CourtCode)或郵遞區號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>CourtCode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubmitKey,CustId,ApplyDate,CourtCode,MaxMainCode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubmitKey= , AND CustId= , AND ApplyDate= , AND CourtCode= , AND MaxMainCode=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>custIdEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcDateEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>custRcEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -614,7 +617,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -705,6 +708,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -740,6 +760,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -915,11 +952,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -938,10 +975,10 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -966,10 +1003,10 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1019,7 +1056,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="11"/>
@@ -1032,7 +1069,7 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="11"/>
@@ -1075,12 +1112,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>20</v>
@@ -1093,7 +1130,7 @@
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="14" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1126,14 +1163,14 @@
         <v>23</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="15">
         <v>3</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1141,13 +1178,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E14" s="15">
         <v>8</v>
@@ -1160,20 +1197,20 @@
         <v>5</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="E15" s="15">
         <v>3</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1187,14 +1224,14 @@
         <v>43</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="15">
         <v>3</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
@@ -1215,7 +1252,7 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1261,10 +1298,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>21</v>
@@ -1864,10 +1901,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
@@ -1893,7 +1930,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>46</v>
@@ -1904,7 +1941,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>48</v>
@@ -1915,7 +1952,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>49</v>
@@ -1926,32 +1963,32 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
